--- a/Documentation/Design Documents/Website Testing.xlsx
+++ b/Documentation/Design Documents/Website Testing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcus\Documents\Coursework- Assignments\CO600 Project\project\co600\Documentation\Design Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E41A48-E60C-4DEE-8CAC-08AA2FC4AE9D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C40C4E5-F8AA-43DD-8F77-FB47336D9CAB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{53579F0D-9274-4238-9ABC-094FC6845497}"/>
   </bookViews>
@@ -132,7 +132,7 @@
     <t>Webpage split up into 3 sections and can be easily accessed through header menu</t>
   </si>
   <si>
-    <t>Tested in Chrome, Internet Explorer and Safari</t>
+    <t>Tested in Chrome, Internet Explorer, Safari and Firefox</t>
   </si>
 </sst>
 </file>
@@ -513,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91D2F33D-B39C-42D8-BD21-E8BC63A01C92}">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documentation/Design Documents/Website Testing.xlsx
+++ b/Documentation/Design Documents/Website Testing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcus\Documents\Coursework- Assignments\CO600 Project\project\co600\Documentation\Design Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\CO600\PCopy\Documentation\Design Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C40C4E5-F8AA-43DD-8F77-FB47336D9CAB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503A129A-371D-4837-A944-2508D5C9D032}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{53579F0D-9274-4238-9ABC-094FC6845497}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{53579F0D-9274-4238-9ABC-094FC6845497}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
   <si>
     <t>Functional Testing</t>
   </si>
@@ -54,9 +54,6 @@
     <t>COMMENTS</t>
   </si>
   <si>
-    <t>Test if any functionality fails, user gets sent back to main page</t>
-  </si>
-  <si>
     <t>Test all inputs fields for special characters</t>
   </si>
   <si>
@@ -78,12 +75,6 @@
     <t>Colour scheme doesn’t clashed and affect visibility</t>
   </si>
   <si>
-    <t>All fields accessible via keyboard shortcuts</t>
-  </si>
-  <si>
-    <t>Tabs accessible throughout the webpage</t>
-  </si>
-  <si>
     <t>Enough space for field labels, columns, rows and error messages</t>
   </si>
   <si>
@@ -111,28 +102,64 @@
     <t>Check if website architecture can support the application at peak user levels</t>
   </si>
   <si>
-    <t>Database Testing</t>
-  </si>
-  <si>
     <t xml:space="preserve">Test connectivity between REST API and webpage </t>
   </si>
   <si>
     <t>P</t>
   </si>
   <si>
-    <t>Most buttons target user to same place on the website, text input field.</t>
-  </si>
-  <si>
-    <t>The page is just refreshed</t>
-  </si>
-  <si>
-    <t>Difference in style and size is present all over the website, but the font family is the same throughout</t>
-  </si>
-  <si>
-    <t>Webpage split up into 3 sections and can be easily accessed through header menu</t>
-  </si>
-  <si>
     <t>Tested in Chrome, Internet Explorer, Safari and Firefox</t>
+  </si>
+  <si>
+    <t>Text field accepts text above 500 characters.</t>
+  </si>
+  <si>
+    <t>All buttons target user to same place on the website, text input field.</t>
+  </si>
+  <si>
+    <t>Test if any functionality fails, user gets an error message</t>
+  </si>
+  <si>
+    <t>Analyse' button working as intended when user enters a copy of Terms and Conditions</t>
+  </si>
+  <si>
+    <t>All fonts in 'Sans Serif'</t>
+  </si>
+  <si>
+    <t>Text Aligned correctly and adjusts with the size of the browser window.</t>
+  </si>
+  <si>
+    <t>Content is proofread.</t>
+  </si>
+  <si>
+    <t>Error displays are proofread.</t>
+  </si>
+  <si>
+    <t>Webpage split up into 3 sections and can be easily accessed using the navigation bar at the top of the page. The navigation bar will always appear on top for an ease of access within sections of the website.</t>
+  </si>
+  <si>
+    <t>API Server Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Website is able to establish connection while the server is running. In addition, an error message is displayed when it is not able to establish connection. </t>
+  </si>
+  <si>
+    <t>Text area accepts ASCII Characters</t>
+  </si>
+  <si>
+    <t>Website performs exceptionally fast in terms of response. A timeout of 5 seconds is implemented on the website so it will display a timeout error if the server does not respond within 5 seconds. A veriety of text input has been tested to test load conditions and it has processed text within 5 seconds.</t>
+  </si>
+  <si>
+    <t>Website is only available to run on a local device.</t>
+  </si>
+  <si>
+    <t>Colour scheme is plain and light. Colours do not contrast.</t>
+  </si>
+  <si>
+    <t>There were no new versions of software that was released during the implementation and testing of the website.</t>
+  </si>
+  <si>
+    <t>The page displays an error message.</t>
   </si>
 </sst>
 </file>
@@ -192,11 +219,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,16 +542,16 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="91.42578125" customWidth="1"/>
-    <col min="3" max="3" width="66.140625" customWidth="1"/>
+    <col min="1" max="1" width="91.44140625" customWidth="1"/>
+    <col min="3" max="3" width="92.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
@@ -531,260 +559,280 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>30</v>
       </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
       <c r="B8" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="3"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="3"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" s="3"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
       <c r="B31" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="3"/>
     </row>
   </sheetData>
